--- a/docs/artifacts/Functional_Requirements_Status.xlsx
+++ b/docs/artifacts/Functional_Requirements_Status.xlsx
@@ -167,7 +167,7 @@
     <t>Completed by the end of 493</t>
   </si>
   <si>
-    <t>Not Completed in Time</t>
+    <t>Still in Production</t>
   </si>
 </sst>
 </file>
@@ -318,7 +318,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
+    <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:Z7"/>
@@ -710,7 +710,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
+    <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D6"/>
@@ -786,7 +786,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
+    <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C12"/>
@@ -895,13 +895,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
+    <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1060,41 +1060,39 @@
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
         <v>49</v>
       </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1107,7 +1105,7 @@
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1120,20 +1118,20 @@
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1146,7 +1144,7 @@
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1159,52 +1157,54 @@
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="C20" s="4"/>
-      <c r="D20" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="4"/>
+      <c r="C21" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>28</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="G22" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1213,13 +1213,11 @@
         <v>28</v>
       </c>
       <c r="F23" s="4"/>
-      <c r="G23" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1228,11 +1226,13 @@
         <v>28</v>
       </c>
       <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G24" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1241,13 +1241,11 @@
         <v>28</v>
       </c>
       <c r="F25" s="4"/>
-      <c r="G25" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1260,10 +1258,12 @@
     </row>
     <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
+      <c r="C27" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4" t="s">
         <v>28</v>
